--- a/RTOS project sheet.xlsx
+++ b/RTOS project sheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>Item</t>
   </si>
@@ -108,12 +108,6 @@
     <t>Create LED control tasks</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Still needs endgame integration</t>
-  </si>
-  <si>
     <t>Create LED on/off tasks</t>
   </si>
   <si>
@@ -144,16 +138,25 @@
     <t>General Debugging of final issues</t>
   </si>
   <si>
-    <t>Make rotating burn fuel</t>
-  </si>
-  <si>
-    <t>Add Out-Of-Fuel condition</t>
+    <t>Add thruster graphic</t>
   </si>
   <si>
     <t>Add Endgame Conditions</t>
   </si>
   <si>
+    <t>Add Out-Of-Fuel checking</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Add fuel amount graphic</t>
+  </si>
+  <si>
     <t>Add offscreen glitch handling</t>
+  </si>
+  <si>
+    <t>Make rotating burn fuel</t>
   </si>
   <si>
     <t>P</t>
@@ -427,11 +430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1039831301"/>
-        <c:axId val="1522404505"/>
+        <c:axId val="953869900"/>
+        <c:axId val="428509590"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1039831301"/>
+        <c:axId val="953869900"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -496,10 +499,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522404505"/>
+        <c:crossAx val="428509590"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1522404505"/>
+        <c:axId val="428509590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -564,7 +567,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1039831301"/>
+        <c:crossAx val="953869900"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -869,12 +872,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="2">
-        <f>SUM(B2:B37)</f>
-        <v>1620</v>
+        <f>SUM(B2:B50)</f>
+        <v>1605</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" ref="H1:H2" si="1">G1/60</f>
-        <v>27</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="2">
@@ -894,12 +897,12 @@
         <v>8</v>
       </c>
       <c r="G2" s="2">
-        <f>SUMIFS(B2:B37,D2:D37,"=Yes")</f>
-        <v>1320</v>
+        <f>SUMIFS(B2:B50,D2:D50,"=Yes")</f>
+        <v>1575</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="3">
@@ -920,7 +923,7 @@
       </c>
       <c r="G3" s="3">
         <f>G2/G1</f>
-        <v>0.8148148148</v>
+        <v>0.9813084112</v>
       </c>
     </row>
     <row r="4">
@@ -940,8 +943,8 @@
         <v>12</v>
       </c>
       <c r="G4" s="3">
-        <f>(SUMIFS(B8:B37,D8:D37,"=Yes")/SUM(B8:B37))</f>
-        <v>0.793814433</v>
+        <f>(SUMIFS(B8:B50,D8:D50,"=Yes")/SUM(B8:B50))</f>
+        <v>0.9791666667</v>
       </c>
     </row>
     <row r="5">
@@ -961,8 +964,8 @@
         <v>14</v>
       </c>
       <c r="G5" s="3">
-        <f>(SUMIFS(C2:C37,D2:D37,"=Yes")/SUMIFS(B2:B37,D2:D37,"=Yes"))</f>
-        <v>0.846969697</v>
+        <f>(SUMIFS(C2:C50,D2:D50,"=Yes")/SUMIFS(B2:B50,D2:D50,"=Yes"))</f>
+        <v>0.8241269841</v>
       </c>
     </row>
     <row r="6">
@@ -1198,15 +1201,12 @@
         <v>65.0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>60.0</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>45.0</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
         <v>120.0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1">
         <v>120.0</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1">
         <v>60.0</v>
@@ -1271,12 +1271,12 @@
         <v>30.0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>120.0</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <v>60.0</v>
@@ -1304,18 +1304,21 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>30.0</v>
       </c>
+      <c r="C31" s="1">
+        <v>15.0</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
         <v>45.0</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1">
         <v>60.0</v>
@@ -1338,63 +1341,89 @@
         <v>50.0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1">
-        <v>15.0</v>
+        <v>45.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>20.0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1">
         <v>30.0</v>
       </c>
+      <c r="C35" s="1">
+        <v>45.0</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1">
         <v>30.0</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="1">
         <v>45.0</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B52" s="1">
         <v>45.0</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>31</v>
+      <c r="D52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D50">
+  <conditionalFormatting sqref="D2:D36 D40:D53">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D50">
+  <conditionalFormatting sqref="D2:D36 D40:D53">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1430,32 +1459,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9">
         <v>13.0</v>
@@ -1476,7 +1505,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="9">
         <v>40.0</v>
@@ -1493,15 +1522,15 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9">
         <v>5.0</v>
@@ -1518,10 +1547,10 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -9563,31 +9592,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
